--- a/test_data/servers_web_rtc.xlsx
+++ b/test_data/servers_web_rtc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15600"/>
+    <workbookView windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>tools</t>
     </r>
     <r>
@@ -125,8 +134,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -179,55 +188,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,6 +224,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -247,6 +277,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -255,44 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,31 +322,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,145 +448,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,21 +520,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -555,13 +549,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,24 +599,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,133 +612,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,7 +747,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,13 +773,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1104,7 @@
   <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1147,7 +1156,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1257,7 +1266,7 @@
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1274,7 +1283,7 @@
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1308,7 +1317,7 @@
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>24</v>
       </c>
     </row>
